--- a/PastaDocumentos/Orcamento.xlsx
+++ b/PastaDocumentos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\exemplo compliance\2TDSS-ExemploGit-2024\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C2E296-3964-4F48-B075-CEE6AD2ED802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F9CFF3-D7C4-4B1C-86E7-6443993DFEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Orcamento do projeto</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Telefonia</t>
+  </si>
+  <si>
+    <t>Alterando o arquivo</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,6 +417,11 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
